--- a/proyecto de grado LT/Cronograma Proyecto v1.xlsx
+++ b/proyecto de grado LT/Cronograma Proyecto v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Abril Trabajo Proyecto Grado</t>
   </si>
@@ -161,12 +162,117 @@
   <si>
     <t>Presentacion al Comité</t>
   </si>
+  <si>
+    <t>PRESENTACION DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>Actualizacion del proyecto</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>Creacion manual tecnico</t>
+  </si>
+  <si>
+    <t>Creacion manual de usuario</t>
+  </si>
+  <si>
+    <t>DOCUMENTACION</t>
+  </si>
+  <si>
+    <t>Capacitación del personal</t>
+  </si>
+  <si>
+    <t>Verificar usabilidad con el usuario</t>
+  </si>
+  <si>
+    <t>Implementar el sistema</t>
+  </si>
+  <si>
+    <t>IMPLEMENTACION</t>
+  </si>
+  <si>
+    <t>Prueba caja Negra</t>
+  </si>
+  <si>
+    <t>Prueba caja blanca</t>
+  </si>
+  <si>
+    <t>Prueba rendimiento</t>
+  </si>
+  <si>
+    <t>Prueba funcionalidad</t>
+  </si>
+  <si>
+    <t>Prueba  de integracion</t>
+  </si>
+  <si>
+    <t>Prueba unitaria del sistema (Parte por parte)</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>Vincular codigo con la base datos</t>
+  </si>
+  <si>
+    <t>Colocar las nuevas intefacez</t>
+  </si>
+  <si>
+    <t>Optimizar codigo fuente</t>
+  </si>
+  <si>
+    <t>DESARROLLO</t>
+  </si>
+  <si>
+    <t>Stakeholders 2,1</t>
+  </si>
+  <si>
+    <t>Rediseñar las nuevas interfaces</t>
+  </si>
+  <si>
+    <t>Seleccionar herramientas de desarrollo</t>
+  </si>
+  <si>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Fijar nuevo alcande del proyecto</t>
+  </si>
+  <si>
+    <t>Nuevos requerimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levantamiento de informacion </t>
+  </si>
+  <si>
+    <t>ANALISIS</t>
+  </si>
+  <si>
+    <t>Creancion Anteproyecto</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>INICIO DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>LACTOSOFT 2.0</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +295,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Comic"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Comic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Comic"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +346,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF385623"/>
+        <bgColor rgb="FF385623"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F6000"/>
+        <bgColor rgb="FF7F6000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor rgb="FFFF6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -345,16 +536,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -380,11 +657,87 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -447,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -482,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -659,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,11 +1022,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:AO83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -683,578 +1036,578 @@
     <col min="11" max="11" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="J2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:11">
+      <c r="A4" s="14">
         <v>7</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>9</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>11</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>12</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>13</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="18">
         <v>14</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>15</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>16</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>17</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>18</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>19</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>20</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="24"/>
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:11">
+      <c r="A6" s="14">
         <v>21</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>23</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>24</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>25</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>26</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>27</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A7" s="18">
         <v>29</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>30</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>4</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>9</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>10</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>11</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>12</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A11" s="18">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>14</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>15</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>16</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>17</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>18</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>19</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="14">
         <v>20</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>21</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>22</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>23</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>24</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>25</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>26</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A13" s="18">
         <v>27</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>29</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>30</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>31</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>2</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="75" customHeight="1" thickBot="1">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>7</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>9</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I18" s="1" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="9:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="I20" s="10">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="9:11" ht="60">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="10">
+    <row r="21" spans="9:11">
+      <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="10">
+    <row r="22" spans="9:11">
+      <c r="I22" s="9">
         <v>3</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="10">
+    <row r="23" spans="9:11">
+      <c r="I23" s="9">
         <v>4</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="10">
+    <row r="24" spans="9:11">
+      <c r="I24" s="9">
         <v>5</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="1" t="s">
+    <row r="25" spans="9:11">
+      <c r="I25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I27" s="10">
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="9">
         <v>1</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I28" s="10">
+    <row r="28" spans="9:11">
+      <c r="I28" s="9">
         <v>2</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I29" s="10">
+    <row r="29" spans="9:11">
+      <c r="I29" s="9">
         <v>3</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10">
+    <row r="30" spans="9:11">
+      <c r="I30" s="9">
         <v>4</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="10">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="9:11">
+      <c r="I31" s="9">
         <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="1" t="s">
+    <row r="32" spans="9:11">
+      <c r="I32" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="10">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="9">
         <v>1</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="10">
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" s="9">
         <v>2</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="10">
+    <row r="36" spans="9:11">
+      <c r="I36" s="9">
         <v>3</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="10">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37" s="9">
         <v>4</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="10">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="9">
         <v>5</v>
       </c>
       <c r="J38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="1" t="s">
+    <row r="39" spans="9:11">
+      <c r="I39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="10">
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="9">
         <v>1</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I42" s="10">
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42" s="9">
         <v>2</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I43" s="10">
+    <row r="43" spans="9:11">
+      <c r="I43" s="9">
         <v>3</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I44" s="10">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44" s="9">
         <v>4</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I45" s="10">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45" s="9">
         <v>5</v>
       </c>
       <c r="J45" t="s">
@@ -1263,18 +1616,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:G9"/>
     <mergeCell ref="I39:K40"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="A14:G15"/>
     <mergeCell ref="I25:K26"/>
     <mergeCell ref="I32:K33"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:G9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K21" r:id="rId1"/>
@@ -1282,4 +1635,1751 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AP37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:42">
+      <c r="B2" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="45"/>
+    </row>
+    <row r="3" spans="2:42">
+      <c r="B3" s="49"/>
+      <c r="C3" s="48">
+        <v>45139</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="48">
+        <v>45170</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="47">
+        <v>45200</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47">
+        <v>45231</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="47">
+        <v>45261</v>
+      </c>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="47">
+        <v>45292</v>
+      </c>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="47">
+        <v>45323</v>
+      </c>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="47">
+        <v>45352</v>
+      </c>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="47">
+        <v>45383</v>
+      </c>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="47">
+        <v>45413</v>
+      </c>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="45"/>
+    </row>
+    <row r="4" spans="2:42">
+      <c r="B4" s="44"/>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32">
+        <v>2</v>
+      </c>
+      <c r="E4" s="32">
+        <v>3</v>
+      </c>
+      <c r="F4" s="32">
+        <v>4</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <v>2</v>
+      </c>
+      <c r="I4" s="32">
+        <v>3</v>
+      </c>
+      <c r="J4" s="32">
+        <v>4</v>
+      </c>
+      <c r="K4" s="32">
+        <v>1</v>
+      </c>
+      <c r="L4" s="32">
+        <v>2</v>
+      </c>
+      <c r="M4" s="32">
+        <v>3</v>
+      </c>
+      <c r="N4" s="32">
+        <v>4</v>
+      </c>
+      <c r="O4" s="32">
+        <v>1</v>
+      </c>
+      <c r="P4" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>3</v>
+      </c>
+      <c r="R4" s="32">
+        <v>4</v>
+      </c>
+      <c r="S4" s="32">
+        <v>1</v>
+      </c>
+      <c r="T4" s="32">
+        <v>2</v>
+      </c>
+      <c r="U4" s="32">
+        <v>3</v>
+      </c>
+      <c r="V4" s="32">
+        <v>4</v>
+      </c>
+      <c r="W4" s="32">
+        <v>1</v>
+      </c>
+      <c r="X4" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="32">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="32">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="32">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="32">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="32">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="32">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="32">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="32">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" ht="59.25">
+      <c r="B5" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+    </row>
+    <row r="6" spans="2:42" ht="59.25">
+      <c r="B6" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+    </row>
+    <row r="7" spans="2:42" ht="59.25">
+      <c r="B7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+    </row>
+    <row r="8" spans="2:42" ht="59.25">
+      <c r="B8" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+    </row>
+    <row r="9" spans="2:42" ht="59.25">
+      <c r="B9" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+    </row>
+    <row r="10" spans="2:42" ht="59.25">
+      <c r="B10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+    </row>
+    <row r="11" spans="2:42" ht="59.25">
+      <c r="B11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+    </row>
+    <row r="12" spans="2:42">
+      <c r="B12" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+    </row>
+    <row r="13" spans="2:42" ht="59.25">
+      <c r="B13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+    </row>
+    <row r="14" spans="2:42" ht="59.25">
+      <c r="B14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+    </row>
+    <row r="15" spans="2:42" ht="59.25">
+      <c r="B15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+    </row>
+    <row r="16" spans="2:42" ht="59.25">
+      <c r="B16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+    </row>
+    <row r="17" spans="2:42" ht="59.25">
+      <c r="B17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+    </row>
+    <row r="18" spans="2:42" ht="59.25">
+      <c r="B18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+    </row>
+    <row r="19" spans="2:42" ht="59.25">
+      <c r="B19" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+    </row>
+    <row r="20" spans="2:42" ht="59.25">
+      <c r="B20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+    </row>
+    <row r="21" spans="2:42">
+      <c r="B21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="B22" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="B23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+    </row>
+    <row r="24" spans="2:42">
+      <c r="B24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+    </row>
+    <row r="25" spans="2:42">
+      <c r="B25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="B26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+    </row>
+    <row r="27" spans="2:42">
+      <c r="B27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+    </row>
+    <row r="28" spans="2:42">
+      <c r="B28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+    </row>
+    <row r="29" spans="2:42">
+      <c r="B29" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+    </row>
+    <row r="30" spans="2:42">
+      <c r="B30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+    </row>
+    <row r="31" spans="2:42">
+      <c r="B31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+    </row>
+    <row r="32" spans="2:42">
+      <c r="B32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+    </row>
+    <row r="33" spans="2:42">
+      <c r="B33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+    </row>
+    <row r="34" spans="2:42">
+      <c r="B34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+    </row>
+    <row r="35" spans="2:42">
+      <c r="B35" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+    </row>
+    <row r="36" spans="2:42">
+      <c r="B36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+    </row>
+    <row r="37" spans="2:42">
+      <c r="B37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:AP2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/proyecto de grado LT/Cronograma Proyecto v1.xlsx
+++ b/proyecto de grado LT/Cronograma Proyecto v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Abril Trabajo Proyecto Grado</t>
   </si>
@@ -266,13 +266,16 @@
   </si>
   <si>
     <t>ACTIVIDADES:</t>
+  </si>
+  <si>
+    <t>WILLIAM ENRIQUE MARTINEZ GOMEZ y CRISTIAN STIVEN GUERRERO ANDRADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +322,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Comic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -407,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -625,12 +641,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -659,12 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,21 +800,51 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,7 +1119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,24 +1144,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="J2" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1214,7 @@
       <c r="G4" s="17">
         <v>13</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="43" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1136,7 +1243,7 @@
       <c r="G5" s="21">
         <v>20</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="43"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1270,7 @@
       <c r="G6" s="17">
         <v>27</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1189,27 +1296,27 @@
       <c r="G7" s="21">
         <v>5</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="14">
@@ -1233,7 +1340,7 @@
       <c r="G10" s="17">
         <v>12</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1259,10 +1366,10 @@
       <c r="G11" s="21">
         <v>19</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="14">
@@ -1286,12 +1393,12 @@
       <c r="G12" s="17">
         <v>26</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="69.75" customHeight="1" thickBot="1">
       <c r="A13" s="18">
@@ -1315,33 +1422,33 @@
       <c r="G13" s="21">
         <v>2</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1379,16 +1486,16 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="9:11">
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="9:11" ht="60">
       <c r="I20" s="9">
@@ -1443,16 +1550,16 @@
       </c>
     </row>
     <row r="25" spans="9:11">
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="9:11">
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
     </row>
     <row r="27" spans="9:11">
       <c r="I27" s="9">
@@ -1505,16 +1612,16 @@
       </c>
     </row>
     <row r="32" spans="9:11">
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="9:11">
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
     </row>
     <row r="34" spans="9:11">
       <c r="I34" s="9">
@@ -1560,16 +1667,16 @@
       </c>
     </row>
     <row r="39" spans="9:11">
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
     </row>
     <row r="40" spans="9:11">
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="9:11">
       <c r="I41" s="9">
@@ -1616,18 +1723,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I39:K40"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="I32:K33"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="I11:K12"/>
     <mergeCell ref="I18:K19"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A8:G9"/>
-    <mergeCell ref="I39:K40"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="I32:K33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K21" r:id="rId1"/>
@@ -1639,1734 +1746,2007 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP37"/>
+  <dimension ref="B1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:42" ht="16.5" thickBot="1">
+      <c r="B1" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="56"/>
+    </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="46"/>
     </row>
     <row r="3" spans="2:42">
-      <c r="B3" s="49"/>
-      <c r="C3" s="48">
+      <c r="B3" s="48"/>
+      <c r="C3" s="51">
         <v>45139</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="48">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="51">
         <v>45170</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="47">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="44">
         <v>45200</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47">
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="44">
         <v>45231</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="47">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="44">
         <v>45261</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="47">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="44">
         <v>45292</v>
       </c>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="47">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
         <v>45323</v>
       </c>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="47">
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="44">
         <v>45352</v>
       </c>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="47">
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="44">
         <v>45383</v>
       </c>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="47">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="44">
         <v>45413</v>
       </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="46"/>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="44"/>
-      <c r="C4" s="32">
+      <c r="B4" s="49"/>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>3</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="30">
         <v>4</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <v>2</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="30">
         <v>3</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="30">
         <v>4</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="30">
         <v>1</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="30">
         <v>2</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="30">
         <v>3</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="30">
         <v>4</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="30">
         <v>1</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="30">
         <v>2</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="30">
         <v>3</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="30">
         <v>4</v>
       </c>
-      <c r="S4" s="32">
+      <c r="S4" s="30">
         <v>1</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="30">
         <v>2</v>
       </c>
-      <c r="U4" s="32">
+      <c r="U4" s="30">
         <v>3</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="30">
         <v>4</v>
       </c>
-      <c r="W4" s="32">
+      <c r="W4" s="30">
         <v>1</v>
       </c>
-      <c r="X4" s="32">
+      <c r="X4" s="30">
         <v>2</v>
       </c>
-      <c r="Y4" s="32">
+      <c r="Y4" s="30">
         <v>3</v>
       </c>
-      <c r="Z4" s="32">
+      <c r="Z4" s="30">
         <v>4</v>
       </c>
-      <c r="AA4" s="32">
+      <c r="AA4" s="30">
         <v>1</v>
       </c>
-      <c r="AB4" s="32">
+      <c r="AB4" s="30">
         <v>2</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AC4" s="30">
         <v>3</v>
       </c>
-      <c r="AD4" s="32">
+      <c r="AD4" s="30">
         <v>4</v>
       </c>
-      <c r="AE4" s="32">
+      <c r="AE4" s="30">
         <v>1</v>
       </c>
-      <c r="AF4" s="32">
+      <c r="AF4" s="30">
         <v>2</v>
       </c>
-      <c r="AG4" s="32">
+      <c r="AG4" s="30">
         <v>3</v>
       </c>
-      <c r="AH4" s="32">
+      <c r="AH4" s="30">
         <v>4</v>
       </c>
-      <c r="AI4" s="32">
+      <c r="AI4" s="30">
         <v>1</v>
       </c>
-      <c r="AJ4" s="32">
+      <c r="AJ4" s="30">
         <v>2</v>
       </c>
-      <c r="AK4" s="32">
+      <c r="AK4" s="30">
         <v>3</v>
       </c>
-      <c r="AL4" s="32">
+      <c r="AL4" s="30">
         <v>4</v>
       </c>
-      <c r="AM4" s="32">
+      <c r="AM4" s="30">
         <v>1</v>
       </c>
-      <c r="AN4" s="32">
+      <c r="AN4" s="30">
         <v>2</v>
       </c>
-      <c r="AO4" s="32">
+      <c r="AO4" s="30">
         <v>3</v>
       </c>
-      <c r="AP4" s="32">
+      <c r="AP4" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:42" ht="59.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
     </row>
     <row r="6" spans="2:42" ht="59.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
     </row>
     <row r="7" spans="2:42" ht="59.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
     </row>
     <row r="8" spans="2:42" ht="59.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
     </row>
     <row r="9" spans="2:42" ht="59.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
     </row>
     <row r="10" spans="2:42" ht="59.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
     </row>
     <row r="11" spans="2:42" ht="59.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
     </row>
     <row r="12" spans="2:42">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
     </row>
     <row r="13" spans="2:42" ht="59.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
     </row>
     <row r="14" spans="2:42" ht="59.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
     </row>
     <row r="15" spans="2:42" ht="59.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
     </row>
     <row r="16" spans="2:42" ht="59.25">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
     </row>
     <row r="17" spans="2:42" ht="59.25">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
     </row>
     <row r="18" spans="2:42" ht="59.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
     </row>
     <row r="19" spans="2:42" ht="59.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
     </row>
     <row r="20" spans="2:42" ht="59.25">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
     </row>
     <row r="21" spans="2:42">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
     </row>
     <row r="22" spans="2:42">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
     </row>
     <row r="23" spans="2:42">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
     </row>
     <row r="24" spans="2:42">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
     </row>
     <row r="25" spans="2:42">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
     </row>
     <row r="26" spans="2:42">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
     </row>
     <row r="27" spans="2:42">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
     </row>
     <row r="28" spans="2:42">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
     </row>
     <row r="29" spans="2:42">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
     </row>
     <row r="30" spans="2:42">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
     </row>
     <row r="31" spans="2:42">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="25"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
     </row>
     <row r="32" spans="2:42">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-    </row>
-    <row r="33" spans="2:42">
-      <c r="B33" s="25" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+    </row>
+    <row r="33" spans="2:43">
+      <c r="B33" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="25"/>
-    </row>
-    <row r="34" spans="2:42">
-      <c r="B34" s="25" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+    </row>
+    <row r="34" spans="2:43">
+      <c r="B34" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-    </row>
-    <row r="35" spans="2:42">
-      <c r="B35" s="29" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+    </row>
+    <row r="35" spans="2:43">
+      <c r="B35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="25"/>
-      <c r="AP35" s="25"/>
-    </row>
-    <row r="36" spans="2:42">
-      <c r="B36" s="25" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+    </row>
+    <row r="36" spans="2:43">
+      <c r="B36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-    </row>
-    <row r="37" spans="2:42">
-      <c r="B37" s="26" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+    </row>
+    <row r="37" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+    </row>
+    <row r="38" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B38" s="52"/>
+    </row>
+    <row r="39" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B39" s="52"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="59"/>
+    </row>
+    <row r="40" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+      <c r="AM40" s="52"/>
+      <c r="AN40" s="52"/>
+      <c r="AO40" s="52"/>
+      <c r="AP40" s="52"/>
+      <c r="AQ40" s="52"/>
+    </row>
+    <row r="41" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52"/>
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+    </row>
+    <row r="42" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
+      <c r="AN42" s="52"/>
+      <c r="AO42" s="52"/>
+      <c r="AP42" s="52"/>
+      <c r="AQ42" s="52"/>
+    </row>
+    <row r="43" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B1:AP1"/>
+    <mergeCell ref="C39:AQ39"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
@@ -3381,5 +3761,6 @@
     <mergeCell ref="W3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/proyecto de grado LT/Cronograma Proyecto v1.xlsx
+++ b/proyecto de grado LT/Cronograma Proyecto v1.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684FC945-7DAC-4870-8BF3-06A5ADA26E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -262,19 +263,19 @@
     <t>INICIO DEL PROYECTO</t>
   </si>
   <si>
-    <t>LACTOSOFT 2.0</t>
-  </si>
-  <si>
     <t>ACTIVIDADES:</t>
   </si>
   <si>
     <t>WILLIAM ENRIQUE MARTINEZ GOMEZ y CRISTIAN STIVEN GUERRERO ANDRADE</t>
+  </si>
+  <si>
+    <t>MAXIMIZANDO EL POTENCIAL ATLÉTICO: CIENCIA DE DATOS Y LACTATO EN EL DEPORTE DE ALTO RENDIMIENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -800,33 +801,17 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -845,6 +830,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1119,637 +1120,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:AO83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14">
-        <v>7</v>
-      </c>
-      <c r="B4" s="15">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16">
-        <v>9</v>
-      </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15">
-        <v>12</v>
-      </c>
-      <c r="G4" s="17">
-        <v>13</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="18">
-        <v>14</v>
-      </c>
-      <c r="B5" s="19">
-        <v>15</v>
-      </c>
-      <c r="C5" s="20">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20">
-        <v>18</v>
-      </c>
-      <c r="F5" s="19">
-        <v>19</v>
-      </c>
-      <c r="G5" s="21">
-        <v>20</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="14">
-        <v>21</v>
-      </c>
-      <c r="B6" s="15">
-        <v>22</v>
-      </c>
-      <c r="C6" s="16">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15">
-        <v>24</v>
-      </c>
-      <c r="E6" s="16">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15">
-        <v>26</v>
-      </c>
-      <c r="G6" s="17">
-        <v>27</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="18">
-        <v>29</v>
-      </c>
-      <c r="B7" s="19">
-        <v>30</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>3</v>
-      </c>
-      <c r="F7" s="19">
-        <v>4</v>
-      </c>
-      <c r="G7" s="21">
-        <v>5</v>
-      </c>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15">
-        <v>9</v>
-      </c>
-      <c r="E10" s="16">
-        <v>10</v>
-      </c>
-      <c r="F10" s="15">
-        <v>11</v>
-      </c>
-      <c r="G10" s="17">
-        <v>12</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="18">
-        <v>13</v>
-      </c>
-      <c r="B11" s="19">
-        <v>14</v>
-      </c>
-      <c r="C11" s="20">
-        <v>15</v>
-      </c>
-      <c r="D11" s="19">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20">
-        <v>17</v>
-      </c>
-      <c r="F11" s="19">
-        <v>18</v>
-      </c>
-      <c r="G11" s="21">
-        <v>19</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="14">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15">
-        <v>21</v>
-      </c>
-      <c r="C12" s="16">
-        <v>22</v>
-      </c>
-      <c r="D12" s="15">
-        <v>23</v>
-      </c>
-      <c r="E12" s="16">
-        <v>24</v>
-      </c>
-      <c r="F12" s="15">
-        <v>25</v>
-      </c>
-      <c r="G12" s="17">
-        <v>26</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-    </row>
-    <row r="13" spans="1:11" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A13" s="18">
-        <v>27</v>
-      </c>
-      <c r="B13" s="19">
-        <v>28</v>
-      </c>
-      <c r="C13" s="20">
-        <v>29</v>
-      </c>
-      <c r="D13" s="19">
-        <v>30</v>
-      </c>
-      <c r="E13" s="20">
-        <v>31</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
-        <v>2</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="75" customHeight="1" thickBot="1">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5">
-        <v>8</v>
-      </c>
-      <c r="G16" s="7">
-        <v>9</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="9:11">
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="9:11">
-      <c r="I18" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="9:11">
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-    </row>
-    <row r="20" spans="9:11" ht="60">
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11">
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11">
-      <c r="I22" s="9">
-        <v>3</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11">
-      <c r="I23" s="9">
-        <v>4</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="9:11">
-      <c r="I24" s="9">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="9:11">
-      <c r="I25" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="26" spans="9:11">
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-    </row>
-    <row r="27" spans="9:11">
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="9:11">
-      <c r="I28" s="9">
-        <v>2</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11">
-      <c r="I29" s="9">
-        <v>3</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="9:11">
-      <c r="I30" s="9">
-        <v>4</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="9:11">
-      <c r="I31" s="9">
-        <v>5</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="9:11">
-      <c r="I32" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-    </row>
-    <row r="33" spans="9:11">
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-    </row>
-    <row r="34" spans="9:11">
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="9:11">
-      <c r="I35" s="9">
-        <v>2</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11">
-      <c r="I36" s="9">
-        <v>3</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="9:11">
-      <c r="I37" s="9">
-        <v>4</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="9:11">
-      <c r="I38" s="9">
-        <v>5</v>
-      </c>
-      <c r="J38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11">
-      <c r="I39" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-    </row>
-    <row r="40" spans="9:11">
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-    </row>
-    <row r="41" spans="9:11">
-      <c r="I41" s="9">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="9:11">
-      <c r="I42" s="9">
-        <v>2</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11">
-      <c r="I43" s="9">
-        <v>3</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="9:11">
-      <c r="I44" s="9">
-        <v>4</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="9:11">
-      <c r="I45" s="9">
-        <v>5</v>
-      </c>
-      <c r="J45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I39:K40"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="I32:K33"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:G9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AP1"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1758,162 +1140,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="16.5" thickBot="1">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="48"/>
+    </row>
+    <row r="2" spans="2:42">
+      <c r="B2" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="56"/>
-    </row>
-    <row r="2" spans="2:42">
-      <c r="B2" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="46"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
     </row>
     <row r="3" spans="2:42">
-      <c r="B3" s="48"/>
-      <c r="C3" s="51">
-        <v>45139</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="51">
-        <v>45170</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="44">
-        <v>45200</v>
-      </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="44">
-        <v>45231</v>
-      </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="44">
-        <v>45261</v>
-      </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="44">
-        <v>45292</v>
-      </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>45323</v>
-      </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="44">
-        <v>45352</v>
-      </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="44">
-        <v>45383</v>
-      </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="44">
-        <v>45413</v>
-      </c>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="46"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="59">
+        <v>44958</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="59">
+        <v>44986</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="52">
+        <v>45017</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="52">
+        <v>45047</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52">
+        <v>45078</v>
+      </c>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="52">
+        <v>45474</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="52">
+        <v>45505</v>
+      </c>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="52">
+        <v>45536</v>
+      </c>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="52">
+        <v>45566</v>
+      </c>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="52">
+        <v>45597</v>
+      </c>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="49"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="30">
         <v>1</v>
       </c>
@@ -3521,227 +2903,227 @@
       <c r="AP37" s="23"/>
     </row>
     <row r="38" spans="2:43" ht="15.75" thickBot="1">
-      <c r="B38" s="52"/>
+      <c r="B38" s="42"/>
     </row>
     <row r="39" spans="2:43" ht="15.75" thickBot="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="58"/>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="58"/>
-      <c r="AP39" s="58"/>
-      <c r="AQ39" s="59"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="51"/>
     </row>
     <row r="40" spans="2:43" ht="15.75" thickBot="1">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="52"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
-      <c r="AO40" s="52"/>
-      <c r="AP40" s="52"/>
-      <c r="AQ40" s="52"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
     </row>
     <row r="41" spans="2:43" ht="15.75" thickBot="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
-      <c r="AO41" s="52"/>
-      <c r="AP41" s="52"/>
-      <c r="AQ41" s="52"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="42"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="42"/>
     </row>
     <row r="42" spans="2:43" ht="15.75" thickBot="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52"/>
-      <c r="AI42" s="52"/>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52"/>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52"/>
-      <c r="AN42" s="52"/>
-      <c r="AO42" s="52"/>
-      <c r="AP42" s="52"/>
-      <c r="AQ42" s="52"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="42"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
     </row>
     <row r="43" spans="2:43" ht="15.75" thickBot="1">
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="43"/>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="43"/>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3763,4 +3145,623 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15">
+        <v>12</v>
+      </c>
+      <c r="G4" s="17">
+        <v>13</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="18">
+        <v>14</v>
+      </c>
+      <c r="B5" s="19">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19">
+        <v>19</v>
+      </c>
+      <c r="G5" s="21">
+        <v>20</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16">
+        <v>25</v>
+      </c>
+      <c r="F6" s="15">
+        <v>26</v>
+      </c>
+      <c r="G6" s="17">
+        <v>27</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A7" s="18">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15">
+        <v>11</v>
+      </c>
+      <c r="G10" s="17">
+        <v>12</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A11" s="18">
+        <v>13</v>
+      </c>
+      <c r="B11" s="19">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21">
+        <v>19</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="14">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16">
+        <v>24</v>
+      </c>
+      <c r="F12" s="15">
+        <v>25</v>
+      </c>
+      <c r="G12" s="17">
+        <v>26</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A13" s="18">
+        <v>27</v>
+      </c>
+      <c r="B13" s="19">
+        <v>28</v>
+      </c>
+      <c r="C13" s="20">
+        <v>29</v>
+      </c>
+      <c r="D13" s="19">
+        <v>30</v>
+      </c>
+      <c r="E13" s="20">
+        <v>31</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="75" customHeight="1" thickBot="1">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>9</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="9:11" ht="60">
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11">
+      <c r="I21" s="9">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11">
+      <c r="I22" s="9">
+        <v>3</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="9">
+        <v>4</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11">
+      <c r="I24" s="9">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11">
+      <c r="I25" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28" s="9">
+        <v>2</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="9">
+        <v>3</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11">
+      <c r="I30" s="9">
+        <v>4</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="9:11">
+      <c r="I31" s="9">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11">
+      <c r="I32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" s="9">
+        <v>2</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="9">
+        <v>3</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37" s="9">
+        <v>4</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="9">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="9">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42" s="9">
+        <v>2</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43" s="9">
+        <v>3</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44" s="9">
+        <v>4</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45" s="9">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:G9"/>
+    <mergeCell ref="I39:K40"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="I32:K33"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>